--- a/data/家庭财务数据记录.xlsx
+++ b/data/家庭财务数据记录.xlsx
@@ -82,8 +82,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,14 +102,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,7 +147,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,24 +162,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,7 +184,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,9 +192,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,14 +216,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,14 +237,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -247,7 +247,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +319,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,19 +349,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,127 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,24 +438,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,6 +456,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -485,6 +476,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,20 +506,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,7 +558,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,124 +567,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1046,7 @@
   <dimension ref="A3:H385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1303,18 +1303,30 @@
         <v>02</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>100</v>
+      </c>
       <c r="C12" s="1" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>2019-02-18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
       </c>
       <c r="G12" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H12" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>02</v>
       </c>
     </row>
     <row r="13" spans="3:8">

--- a/data/家庭财务数据记录.xlsx
+++ b/data/家庭财务数据记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\code space\python\1notebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="6_{7C2DD510-A38C-4A2B-A669-8EB2DB97F1CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5A90D2A8-F3E2-43D1-B1CC-34FDE06BD5FA}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="6_{6ED4CA46-301A-4B80-967C-093460A3F19E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B872384C-4EF4-4455-BB92-BBB999DF5770}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="39">
   <si>
     <t>备注</t>
   </si>
@@ -135,6 +135,26 @@
   </si>
   <si>
     <t>京东消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交季度票要求200，说前一次是补票，这次实际失去按摩店，没得好可怜，都是报应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1476,6 +1496,7 @@
         <f ca="1">IF(B37="","",IF(H37="",TEXT(NOW(),"mm"),H37))</f>
         <v>03</v>
       </c>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38">
@@ -1675,216 +1696,344 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>100</v>
+      </c>
       <c r="C46" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E46" s="2"/>
+        <v>2019-03-25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>03</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>5000</v>
+      </c>
       <c r="C47" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E47" s="2"/>
+        <v>2019-03-25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>03</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
       <c r="C48" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E48" s="2"/>
+        <v>2019-03-26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+        <v>03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
       <c r="C49" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E49" s="2"/>
+        <v>2019-03-28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+        <v>03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>100</v>
+      </c>
       <c r="C50" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E50" s="2"/>
+        <v>2019-03-28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G50" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+        <v>03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>100</v>
+      </c>
       <c r="C51" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E51" s="2"/>
+        <v>2019-03-29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G51" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+        <v>03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>100</v>
+      </c>
       <c r="C52" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E52" s="2"/>
+        <v>2019-03-30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G52" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+        <v>03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="2">
+        <f>10782-2580-1129+3250</f>
+        <v>10323</v>
+      </c>
       <c r="C53" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E53" s="2"/>
+        <v>2019-03-30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G53" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+        <v>03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="2">
+        <v>50</v>
+      </c>
       <c r="C54" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E54" s="2"/>
+        <v>2019-03-31</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G54" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+        <v>03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>50</v>
+      </c>
       <c r="C55" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E55" s="2"/>
+        <v>2019-03-31</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G55" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+        <v>03</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="2">
+        <v>150</v>
+      </c>
       <c r="C56" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E56" s="2"/>
+        <v>2019-03-31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G56" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+        <v>03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>500</v>
+      </c>
       <c r="C57" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E57" s="2"/>
+        <v>2019-04-07</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G57" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+        <v>04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>50</v>
+      </c>
       <c r="C58" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E58" s="2"/>
+        <v>2019-04-07</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G58" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+        <v>04</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>100</v>
+      </c>
       <c r="C59" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E59" s="2"/>
+        <v>2019-04-08</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G59" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2019</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+        <v>04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -1899,7 +2048,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -1914,7 +2063,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -1929,7 +2078,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -1944,7 +2093,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="str">
         <f t="shared" ref="C64:C72" ca="1" si="10">IF(B64="","",IF(C64="",TEXT(NOW(),"yyyy-mm-dd"),C64))</f>
         <v/>

--- a/data/家庭财务数据记录.xlsx
+++ b/data/家庭财务数据记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\code space\python\1notebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="6_{6ED4CA46-301A-4B80-967C-093460A3F19E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B872384C-4EF4-4455-BB92-BBB999DF5770}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{62B5E834-5C7B-461A-905F-A4D0F0CF48CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D3912799-0A62-4BD7-9776-3D84694A055C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019年" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019年'!$A$3:$L$422</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterate="1"/>
+  <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="39">
   <si>
     <t>备注</t>
   </si>
@@ -173,6 +173,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -214,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,6 +223,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J321" sqref="J321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1507,7 @@
         <v>300</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f t="shared" ref="C38:C63" ca="1" si="7">IF(B38="","",IF(C38="",TEXT(NOW(),"yyyy-mm-dd"),C38))</f>
+        <f t="shared" ref="C38:C75" ca="1" si="7">IF(B38="","",IF(C38="",TEXT(NOW(),"yyyy-mm-dd"),C38))</f>
         <v>2019-03-16</v>
       </c>
       <c r="D38" t="s">
@@ -2034,2452 +2038,2468 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E60" s="2"/>
+      <c r="B60" s="2">
+        <v>100</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <f ca="1">IF(B60="","",TEXT(NOW(),"yyyy-mm-dd"))</f>
+        <v>2019-04-13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G60" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f ca="1">IF(B60="","",TEXT(NOW(),"yyyy"))</f>
+        <v>2019</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f ca="1">IF(B60="","",TEXT(NOW(),"mm"))</f>
+        <v>04</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="1" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="E61" s="2"/>
+      <c r="B61" s="2">
+        <v>100</v>
+      </c>
+      <c r="C61" s="3" t="str">
+        <f t="shared" ref="C61:C65" ca="1" si="10">IF(B61="","",TEXT(NOW(),"yyyy-mm-dd"))</f>
+        <v>2019-04-13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G61" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ref="G61:G124" ca="1" si="11">IF(B61="","",TEXT(NOW(),"yyyy"))</f>
+        <v>2019</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ref="H61:H124" ca="1" si="12">IF(B61="","",TEXT(NOW(),"mm"))</f>
+        <v>04</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="C62" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="E62" s="2"/>
       <c r="G62" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H62" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="C63" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="E63" s="2"/>
       <c r="G63" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H63" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="str">
-        <f t="shared" ref="C64:C72" ca="1" si="10">IF(B64="","",IF(C64="",TEXT(NOW(),"yyyy-mm-dd"),C64))</f>
+      <c r="C64" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="E64" s="2"/>
       <c r="G64" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H64" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="1" t="str">
+      <c r="C65" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="E65" s="2"/>
       <c r="G65" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H65" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E66" s="2"/>
       <c r="G66" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E67" s="2"/>
       <c r="G67" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E68" s="2"/>
       <c r="G68" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E69" s="2"/>
       <c r="G69" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E70" s="2"/>
       <c r="G70" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H70" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E71" s="2"/>
       <c r="G71" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H71" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E72" s="2"/>
       <c r="G72" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H72" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="str">
-        <f t="shared" ref="C73:C132" ca="1" si="11">IF(B73="","",IF(C73="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C73))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E73" s="2"/>
       <c r="G73" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H73" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E74" s="2"/>
       <c r="G74" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H74" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E75" s="2"/>
       <c r="G75" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H75" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C76:C132" ca="1" si="13">IF(B76="","",IF(C76="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C76))</f>
         <v/>
       </c>
       <c r="E76" s="2"/>
       <c r="G76" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H76" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E77" s="2"/>
       <c r="G77" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H77" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E78" s="2"/>
       <c r="G78" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H78" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E79" s="2"/>
       <c r="G79" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H79" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E80" s="2"/>
       <c r="G80" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H80" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E81" s="2"/>
       <c r="G81" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H81" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E82" s="2"/>
       <c r="G82" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H82" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E83" s="2"/>
       <c r="G83" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H83" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E84" s="2"/>
       <c r="G84" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E85" s="2"/>
       <c r="G85" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H85" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E86" s="2"/>
       <c r="G86" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H86" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E87" s="2"/>
       <c r="G87" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H87" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E88" s="2"/>
       <c r="G88" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H88" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E89" s="2"/>
       <c r="G89" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H89" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E90" s="2"/>
       <c r="G90" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H90" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E91" s="2"/>
       <c r="G91" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H91" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E92" s="2"/>
       <c r="G92" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H92" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E93" s="2"/>
       <c r="G93" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H93" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E94" s="2"/>
       <c r="G94" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H94" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E95" s="2"/>
       <c r="G95" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H95" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E96" s="2"/>
       <c r="G96" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H96" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E97" s="2"/>
       <c r="G97" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H97" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E98" s="2"/>
       <c r="G98" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H98" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E99" s="2"/>
       <c r="G99" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H99" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E100" s="2"/>
       <c r="G100" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H100" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E101" s="2"/>
       <c r="G101" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H101" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E102" s="2"/>
       <c r="G102" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H102" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E103" s="2"/>
       <c r="G103" t="str">
-        <f t="shared" ref="G103:G166" ca="1" si="12">IF(B103="","",IF(G103="",TEXT(NOW(),"yyyy"),G103))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="H103" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E104" s="2"/>
       <c r="G104" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H104" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" ref="H104:H167" ca="1" si="13">IF(B104="","",IF(H104="",TEXT(NOW(),"mm"),H104))</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E105" s="2"/>
       <c r="G105" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H105" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H105" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E106" s="2"/>
       <c r="G106" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H106" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H106" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E107" s="2"/>
       <c r="G107" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H107" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H107" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E108" s="2"/>
       <c r="G108" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H108" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H108" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E109" s="2"/>
       <c r="G109" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H109" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H109" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E110" s="2"/>
       <c r="G110" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H110" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H110" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E111" s="2"/>
       <c r="G111" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H111" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H111" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E112" s="2"/>
       <c r="G112" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H112" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H112" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E113" s="2"/>
       <c r="G113" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H113" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H113" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E114" s="2"/>
       <c r="G114" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H114" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H114" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E115" s="2"/>
       <c r="G115" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H115" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H115" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E116" s="2"/>
       <c r="G116" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H116" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H116" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E117" s="2"/>
       <c r="G117" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H117" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H117" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E118" s="2"/>
       <c r="G118" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H118" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H118" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E119" s="2"/>
       <c r="G119" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H119" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H119" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E120" s="2"/>
       <c r="G120" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H120" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H120" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E121" s="2"/>
       <c r="G121" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H121" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H121" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E122" s="2"/>
       <c r="G122" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H122" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H122" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E123" s="2"/>
       <c r="G123" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H123" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H123" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E124" s="2"/>
       <c r="G124" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H124" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H124" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E125" s="2"/>
       <c r="G125" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="G125:G188" ca="1" si="14">IF(B125="","",TEXT(NOW(),"yyyy"))</f>
         <v/>
       </c>
       <c r="H125" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="H125:H188" ca="1" si="15">IF(B125="","",TEXT(NOW(),"mm"))</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E126" s="2"/>
       <c r="G126" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H126" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E127" s="2"/>
       <c r="G127" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H127" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E128" s="2"/>
       <c r="G128" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H128" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E129" s="2"/>
       <c r="G129" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H129" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E130" s="2"/>
       <c r="G130" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H130" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E131" s="2"/>
       <c r="G131" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="E132" s="2"/>
       <c r="G132" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H132" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="str">
-        <f t="shared" ref="C133:C196" ca="1" si="14">IF(B133="","",IF(C133="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C133))</f>
+        <f t="shared" ref="C133:C196" ca="1" si="16">IF(B133="","",IF(C133="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C133))</f>
         <v/>
       </c>
       <c r="E133" s="2"/>
       <c r="G133" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H133" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E134" s="2"/>
       <c r="G134" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H134" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E135" s="2"/>
       <c r="G135" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H135" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E136" s="2"/>
       <c r="G136" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H136" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E137" s="2"/>
       <c r="G137" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H137" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E138" s="2"/>
       <c r="G138" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H138" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E139" s="2"/>
       <c r="G139" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H139" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E140" s="2"/>
       <c r="G140" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H140" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E141" s="2"/>
       <c r="G141" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H141" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E142" s="2"/>
       <c r="G142" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H142" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E143" s="2"/>
       <c r="G143" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H143" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E144" s="2"/>
       <c r="G144" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H144" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E145" s="2"/>
       <c r="G145" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H145" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E146" s="2"/>
       <c r="G146" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H146" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E147" s="2"/>
       <c r="G147" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H147" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E148" s="2"/>
       <c r="G148" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H148" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E149" s="2"/>
       <c r="G149" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H149" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E150" s="2"/>
       <c r="G150" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H150" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E151" s="2"/>
       <c r="G151" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H151" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E152" s="2"/>
       <c r="G152" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H152" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E153" s="2"/>
       <c r="G153" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H153" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E154" s="2"/>
       <c r="G154" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H154" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E155" s="2"/>
       <c r="G155" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H155" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E156" s="2"/>
       <c r="G156" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H156" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E157" s="2"/>
       <c r="G157" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H157" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E158" s="2"/>
       <c r="G158" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H158" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E159" s="2"/>
       <c r="G159" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H159" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E160" s="2"/>
       <c r="G160" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H160" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E161" s="2"/>
       <c r="G161" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H161" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E162" s="2"/>
       <c r="G162" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H162" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C163" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E163" s="2"/>
       <c r="G163" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H163" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E164" s="2"/>
       <c r="G164" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H164" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E165" s="2"/>
       <c r="G165" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H165" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E166" s="2"/>
       <c r="G166" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H166" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E167" s="2"/>
       <c r="G167" t="str">
-        <f t="shared" ref="G167:G205" ca="1" si="15">IF(B167="","",IF(G167="",TEXT(NOW(),"yyyy"),G167))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="H167" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C168" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E168" s="2"/>
       <c r="G168" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H168" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H168" t="str">
-        <f t="shared" ref="H168:H231" ca="1" si="16">IF(B168="","",IF(H168="",TEXT(NOW(),"mm"),H168))</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E169" s="2"/>
       <c r="G169" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H169" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H169" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E170" s="2"/>
       <c r="G170" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H170" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H170" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E171" s="2"/>
       <c r="G171" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H171" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H171" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E172" s="2"/>
       <c r="G172" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H172" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H172" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E173" s="2"/>
       <c r="G173" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H173" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H173" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E174" s="2"/>
       <c r="G174" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H174" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H174" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E175" s="2"/>
       <c r="G175" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H175" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H175" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E176" s="2"/>
       <c r="G176" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H176" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H176" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C177" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E177" s="2"/>
       <c r="G177" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H177" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H177" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E178" s="2"/>
       <c r="G178" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H178" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H178" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C179" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E179" s="2"/>
       <c r="G179" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H179" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H179" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C180" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E180" s="2"/>
       <c r="G180" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H180" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H180" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C181" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E181" s="2"/>
       <c r="G181" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H181" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H181" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C182" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E182" s="2"/>
       <c r="G182" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H182" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H182" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C183" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E183" s="2"/>
       <c r="G183" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H183" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H183" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C184" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E184" s="2"/>
       <c r="G184" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H184" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H184" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C185" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E185" s="2"/>
       <c r="G185" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H185" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H185" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C186" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E186" s="2"/>
       <c r="G186" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H186" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H186" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C187" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E187" s="2"/>
       <c r="G187" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H187" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H187" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C188" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E188" s="2"/>
       <c r="G188" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="H188" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H188" t="str">
-        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C189" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E189" s="2"/>
       <c r="G189" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="G189:G205" ca="1" si="17">IF(B189="","",TEXT(NOW(),"yyyy"))</f>
         <v/>
       </c>
       <c r="H189" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="H189:H252" ca="1" si="18">IF(B189="","",TEXT(NOW(),"mm"))</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C190" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="G190" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="H190" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C191" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="G191" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="H191" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C192" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="G192" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="H192" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C193" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="G193" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="H193" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C194" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="G194" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="H194" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C195" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="G195" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C196" s="1" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="G196" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="H196" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C197" s="1" t="str">
-        <f t="shared" ref="C197:C260" ca="1" si="17">IF(B197="","",IF(C197="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C197))</f>
+        <f t="shared" ref="C197:C260" ca="1" si="19">IF(B197="","",IF(C197="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C197))</f>
         <v/>
       </c>
       <c r="G197" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="H197" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C198" s="1" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="G198" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="G198" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
       <c r="H198" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C199" s="1" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="G199" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="G199" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
       <c r="H199" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C200" s="1" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="G200" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="G200" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
       <c r="H200" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C201" s="1" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="G201" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="G201" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
       <c r="H201" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C202" s="1" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="G202" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="G202" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
       <c r="H202" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C203" s="1" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="G203" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="G203" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
       <c r="H203" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C204" s="1" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="G204" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="G204" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
       <c r="H204" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C205" s="1" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="G205" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="G205" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
       <c r="H205" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C206" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H206" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C207" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H207" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C208" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H208" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C209" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H209" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C210" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H210" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C211" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H211" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C212" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H212" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C213" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H213" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C214" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H214" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C215" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H215" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C216" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H216" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C217" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H217" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C218" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H218" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C219" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H219" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C220" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H220" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C221" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H221" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C222" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H222" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C223" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H223" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C224" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H224" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C225" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H225" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C226" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H226" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C227" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H227" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C228" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H228" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C229" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H229" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C230" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H230" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C231" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H231" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C232" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H232" t="str">
-        <f t="shared" ref="H232:H295" ca="1" si="18">IF(B232="","",IF(H232="",TEXT(NOW(),"mm"),H232))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C233" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H233" t="str">
@@ -4489,7 +4509,7 @@
     </row>
     <row r="234" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C234" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H234" t="str">
@@ -4499,7 +4519,7 @@
     </row>
     <row r="235" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C235" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H235" t="str">
@@ -4509,7 +4529,7 @@
     </row>
     <row r="236" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C236" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H236" t="str">
@@ -4519,7 +4539,7 @@
     </row>
     <row r="237" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C237" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H237" t="str">
@@ -4529,7 +4549,7 @@
     </row>
     <row r="238" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C238" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H238" t="str">
@@ -4539,7 +4559,7 @@
     </row>
     <row r="239" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C239" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H239" t="str">
@@ -4549,7 +4569,7 @@
     </row>
     <row r="240" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C240" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H240" t="str">
@@ -4559,7 +4579,7 @@
     </row>
     <row r="241" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C241" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H241" t="str">
@@ -4569,7 +4589,7 @@
     </row>
     <row r="242" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C242" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H242" t="str">
@@ -4579,7 +4599,7 @@
     </row>
     <row r="243" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C243" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H243" t="str">
@@ -4589,7 +4609,7 @@
     </row>
     <row r="244" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C244" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H244" t="str">
@@ -4599,7 +4619,7 @@
     </row>
     <row r="245" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C245" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H245" t="str">
@@ -4609,7 +4629,7 @@
     </row>
     <row r="246" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C246" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H246" t="str">
@@ -4619,7 +4639,7 @@
     </row>
     <row r="247" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C247" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H247" t="str">
@@ -4629,7 +4649,7 @@
     </row>
     <row r="248" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C248" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H248" t="str">
@@ -4639,7 +4659,7 @@
     </row>
     <row r="249" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C249" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H249" t="str">
@@ -4649,7 +4669,7 @@
     </row>
     <row r="250" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C250" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H250" t="str">
@@ -4659,7 +4679,7 @@
     </row>
     <row r="251" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C251" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H251" t="str">
@@ -4669,7 +4689,7 @@
     </row>
     <row r="252" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C252" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H252" t="str">
@@ -4679,447 +4699,447 @@
     </row>
     <row r="253" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C253" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H253" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ref="H253:H316" ca="1" si="20">IF(B253="","",TEXT(NOW(),"mm"))</f>
         <v/>
       </c>
     </row>
     <row r="254" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C254" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H254" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C255" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H255" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C256" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H256" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C257" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H257" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C258" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H258" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C259" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H259" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C260" s="1" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H260" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C261" s="1" t="str">
-        <f t="shared" ref="C261:C324" ca="1" si="19">IF(B261="","",IF(C261="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C261))</f>
+        <f t="shared" ref="C261:C324" ca="1" si="21">IF(B261="","",IF(C261="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C261))</f>
         <v/>
       </c>
       <c r="H261" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C262" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H262" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C263" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H263" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C264" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H264" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C265" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H265" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C266" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H266" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C267" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H267" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C268" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H268" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C269" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H269" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C270" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H270" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C271" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H271" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C272" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H272" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C273" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H273" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C274" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H274" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C275" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H275" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C276" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H276" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C277" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H277" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C278" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H278" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C279" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H279" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C280" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H280" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C281" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H281" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C282" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H282" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C283" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H283" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C284" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H284" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C285" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H285" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C286" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H286" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C287" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H287" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C288" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H288" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C289" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H289" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C290" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H290" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C291" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H291" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C292" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H292" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C293" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H293" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C294" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H294" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C295" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H295" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C296" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H296" t="str">
-        <f t="shared" ref="H296:H325" ca="1" si="20">IF(B296="","",IF(H296="",TEXT(NOW(),"mm"),H296))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C297" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H297" t="str">
@@ -5129,7 +5149,7 @@
     </row>
     <row r="298" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C298" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H298" t="str">
@@ -5139,7 +5159,7 @@
     </row>
     <row r="299" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C299" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H299" t="str">
@@ -5149,7 +5169,7 @@
     </row>
     <row r="300" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C300" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H300" t="str">
@@ -5159,7 +5179,7 @@
     </row>
     <row r="301" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C301" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H301" t="str">
@@ -5169,7 +5189,7 @@
     </row>
     <row r="302" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C302" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H302" t="str">
@@ -5179,7 +5199,7 @@
     </row>
     <row r="303" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C303" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H303" t="str">
@@ -5189,7 +5209,7 @@
     </row>
     <row r="304" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C304" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H304" t="str">
@@ -5199,7 +5219,7 @@
     </row>
     <row r="305" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C305" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H305" t="str">
@@ -5209,7 +5229,7 @@
     </row>
     <row r="306" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C306" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H306" t="str">
@@ -5219,7 +5239,7 @@
     </row>
     <row r="307" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C307" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H307" t="str">
@@ -5229,7 +5249,7 @@
     </row>
     <row r="308" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C308" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H308" t="str">
@@ -5239,7 +5259,7 @@
     </row>
     <row r="309" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C309" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H309" t="str">
@@ -5249,7 +5269,7 @@
     </row>
     <row r="310" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C310" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H310" t="str">
@@ -5259,7 +5279,7 @@
     </row>
     <row r="311" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C311" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H311" t="str">
@@ -5269,7 +5289,7 @@
     </row>
     <row r="312" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C312" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H312" t="str">
@@ -5279,7 +5299,7 @@
     </row>
     <row r="313" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C313" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H313" t="str">
@@ -5289,7 +5309,7 @@
     </row>
     <row r="314" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C314" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H314" t="str">
@@ -5299,7 +5319,7 @@
     </row>
     <row r="315" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C315" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H315" t="str">
@@ -5309,7 +5329,7 @@
     </row>
     <row r="316" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C316" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H316" t="str">
@@ -5319,451 +5339,451 @@
     </row>
     <row r="317" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C317" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H317" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="H317:H325" ca="1" si="22">IF(B317="","",TEXT(NOW(),"mm"))</f>
         <v/>
       </c>
     </row>
     <row r="318" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C318" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H318" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C319" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H319" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C320" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H320" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C321" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H321" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C322" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H322" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C323" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H323" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C324" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H324" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C325" s="1" t="str">
-        <f t="shared" ref="C325:C385" ca="1" si="21">IF(B325="","",IF(C325="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C325))</f>
+        <f t="shared" ref="C325:C385" ca="1" si="23">IF(B325="","",IF(C325="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C325))</f>
         <v/>
       </c>
       <c r="H325" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(B325="","",TEXT(NOW(),"mm"))</f>
         <v/>
       </c>
     </row>
     <row r="326" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C326" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C327" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C328" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C329" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C330" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C331" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C332" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C333" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C334" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C335" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C336" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C338" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C340" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C350" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C352" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C356" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C358" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C362" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C364" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C376" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C378" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C380" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C382" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C384" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C385" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
@@ -5772,449 +5792,449 @@
     </row>
     <row r="387" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C387" s="1" t="str">
-        <f t="shared" ref="C387:C422" ca="1" si="22">IF(B387="","",IF(C387="",TEXT(NOW(),"yyyy-mm-dd hh"),C387))</f>
+        <f t="shared" ref="C387:C422" ca="1" si="24">IF(B387="","",IF(C387="",TEXT(NOW(),"yyyy-mm-dd hh"),C387))</f>
         <v/>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G415" ca="1" si="23">IF(B387="","",IF(G387="",TEXT(NOW(),"yyyy"),G387))</f>
+        <f t="shared" ref="G387:G415" ca="1" si="25">IF(B387="","",IF(G387="",TEXT(NOW(),"yyyy"),G387))</f>
         <v/>
       </c>
       <c r="H387" t="str">
-        <f t="shared" ref="H387:H415" ca="1" si="24">IF(B387="","",IF(H387="",TEXT(NOW(),"mm"),H387))</f>
+        <f t="shared" ref="H387:H415" ca="1" si="26">IF(B387="","",IF(H387="",TEXT(NOW(),"mm"),H387))</f>
         <v/>
       </c>
     </row>
     <row r="388" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C388" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G388" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H388" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C389" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G389" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H389" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C390" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G390" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H390" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C391" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G391" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H391" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C392" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G392" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H392" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C393" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G393" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H393" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C394" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G394" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H394" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C395" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G395" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H395" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C396" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G396" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H396" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C397" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G397" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H397" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C398" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G398" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H398" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C399" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G399" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H399" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C400" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G400" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H400" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C401" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G401" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H401" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C402" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G402" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H402" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C403" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G403" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H403" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C404" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G404" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H404" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C405" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G405" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H405" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C406" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G406" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H406" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C407" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G407" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H407" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C408" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G408" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H408" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C409" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G409" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H409" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C410" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G410" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H410" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C411" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G411" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H411" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C412" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G412" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H412" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C413" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G413" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H413" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C414" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G414" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H414" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C415" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G415" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H415" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C416" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C420" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C421" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C422" s="1" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
     </row>

--- a/data/家庭财务数据记录.xlsx
+++ b/data/家庭财务数据记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\code space\python\1notebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{62B5E834-5C7B-461A-905F-A4D0F0CF48CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D3912799-0A62-4BD7-9776-3D84694A055C}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="6_{980F348C-6D58-46A4-A93E-309A0127F083}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1ADAD0FB-BAE2-4CCE-9F66-E86B77538E96}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019年" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019年'!$A$3:$L$422</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="39">
   <si>
     <t>备注</t>
   </si>
@@ -215,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,7 +225,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,14 +537,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J321" sqref="J321"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
     <col min="3" max="3" width="20.1796875" customWidth="1"/>
     <col min="11" max="11" width="12.26953125" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1368,7 +1374,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>100</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>4500</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -1502,12 +1508,12 @@
       </c>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>300</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f t="shared" ref="C38:C75" ca="1" si="7">IF(B38="","",IF(C38="",TEXT(NOW(),"yyyy-mm-dd"),C38))</f>
+        <f t="shared" ref="C38:C101" ca="1" si="7">IF(B38="","",IF(C38="",TEXT(NOW(),"yyyy-mm-dd"),C38))</f>
         <v>2019-03-16</v>
       </c>
       <c r="D38" t="s">
@@ -1525,7 +1531,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>100</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" ref="G39:G102" ca="1" si="8">IF(B39="","",IF(G39="",TEXT(NOW(),"yyyy"),G39))</f>
+        <f t="shared" ref="G39:G59" ca="1" si="8">IF(B39="","",IF(G39="",TEXT(NOW(),"yyyy"),G39))</f>
         <v>2019</v>
       </c>
       <c r="H39" t="str">
@@ -1548,7 +1554,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
@@ -1570,11 +1576,11 @@
         <v>2019</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" ref="H40:H103" ca="1" si="9">IF(B40="","",IF(H40="",TEXT(NOW(),"mm"),H40))</f>
+        <f t="shared" ref="H40:H59" ca="1" si="9">IF(B40="","",IF(H40="",TEXT(NOW(),"mm"),H40))</f>
         <v>03</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>33</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>50</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>100</v>
       </c>
@@ -1671,12 +1677,8 @@
         <f t="shared" ca="1" si="9"/>
         <v>03</v>
       </c>
-      <c r="N44">
-        <f>1841.7+1600</f>
-        <v>3441.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>50</v>
       </c>
@@ -1699,7 +1701,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>100</v>
       </c>
@@ -1722,7 +1724,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>5000</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
@@ -1771,7 +1773,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>35</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>100</v>
       </c>
@@ -1820,7 +1822,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>100</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>100</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>36</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>37</v>
       </c>
@@ -1919,7 +1921,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>50</v>
       </c>
@@ -1941,8 +1943,10 @@
         <f t="shared" ca="1" si="9"/>
         <v>03</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M55" s="3"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>38</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>500</v>
       </c>
@@ -1991,7 +1995,7 @@
         <v>04</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>50</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>04</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>100</v>
       </c>
@@ -2037,13 +2041,13 @@
         <v>04</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>100</v>
       </c>
-      <c r="C60" s="3" t="str">
-        <f ca="1">IF(B60="","",TEXT(NOW(),"yyyy-mm-dd"))</f>
-        <v>2019-04-13</v>
+      <c r="C60" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2019-04-15</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -2060,13 +2064,13 @@
         <v>04</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>100</v>
       </c>
-      <c r="C61" s="3" t="str">
-        <f t="shared" ref="C61:C65" ca="1" si="10">IF(B61="","",TEXT(NOW(),"yyyy-mm-dd"))</f>
-        <v>2019-04-13</v>
+      <c r="C61" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2019-04-15</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -2075,3715 +2079,3748 @@
         <v>10</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" ref="G61:G124" ca="1" si="11">IF(B61="","",TEXT(NOW(),"yyyy"))</f>
+        <f t="shared" ref="G61:G124" ca="1" si="10">IF(B61="","",TEXT(NOW(),"yyyy"))</f>
         <v>2019</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ref="H61:H124" ca="1" si="12">IF(B61="","",TEXT(NOW(),"mm"))</f>
+        <f t="shared" ref="H61:H124" ca="1" si="11">IF(B61="","",TEXT(NOW(),"mm"))</f>
         <v>04</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="3" t="str">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2019-04-15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="G62" t="str">
+        <v>2019</v>
+      </c>
+      <c r="H62" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="3" t="str">
+        <v>04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2">
+        <v>300</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2019-04-16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="G63" t="str">
+        <v>2019</v>
+      </c>
+      <c r="H63" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="3" t="str">
+        <v>04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>4400</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2019-04-16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="G64" t="str">
+        <v>2019</v>
+      </c>
+      <c r="H64" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="3" t="str">
+        <v>04</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>100</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2019-04-16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="G65" t="str">
+        <v>2019</v>
+      </c>
+      <c r="H65" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H65" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+        <v>04</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E66" s="2"/>
       <c r="G66" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H66" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H66" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E67" s="2"/>
       <c r="G67" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H67" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H67" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E68" s="2"/>
       <c r="G68" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H68" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H68" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E69" s="2"/>
       <c r="G69" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H69" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H69" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E70" s="2"/>
       <c r="G70" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H70" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H70" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E71" s="2"/>
       <c r="G71" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H71" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H71" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E72" s="2"/>
       <c r="G72" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H72" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H72" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E73" s="2"/>
       <c r="G73" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H73" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H73" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E74" s="2"/>
       <c r="G74" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H74" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H74" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E75" s="2"/>
       <c r="G75" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H75" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H75" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="str">
-        <f t="shared" ref="C76:C132" ca="1" si="13">IF(B76="","",IF(C76="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C76))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E76" s="2"/>
       <c r="G76" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H76" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H76" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E77" s="2"/>
       <c r="G77" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H77" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H77" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E78" s="2"/>
       <c r="G78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H78" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H78" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E79" s="2"/>
       <c r="G79" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H79" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="H79" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E80" s="2"/>
       <c r="G80" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H80" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E81" s="2"/>
       <c r="G81" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H81" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E82" s="2"/>
       <c r="G82" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H82" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E83" s="2"/>
       <c r="G83" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H83" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E84" s="2"/>
       <c r="G84" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H84" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E85" s="2"/>
       <c r="G85" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H85" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E86" s="2"/>
       <c r="G86" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H86" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E87" s="2"/>
       <c r="G87" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H87" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E88" s="2"/>
       <c r="G88" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H88" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E89" s="2"/>
       <c r="G89" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H89" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H89" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E90" s="2"/>
       <c r="G90" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H90" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E91" s="2"/>
       <c r="G91" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H91" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E92" s="2"/>
       <c r="G92" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H92" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E93" s="2"/>
       <c r="G93" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H93" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E94" s="2"/>
       <c r="G94" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H94" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E95" s="2"/>
       <c r="G95" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H95" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E96" s="2"/>
       <c r="G96" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H96" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E97" s="2"/>
       <c r="G97" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H97" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E98" s="2"/>
       <c r="G98" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H98" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E99" s="2"/>
       <c r="G99" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H99" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E100" s="2"/>
       <c r="G100" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H100" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="E101" s="2"/>
       <c r="G101" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H101" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C102:C165" ca="1" si="12">IF(B102="","",IF(C102="",TEXT(NOW(),"yyyy-mm-dd"),C102))</f>
         <v/>
       </c>
       <c r="E102" s="2"/>
       <c r="G102" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H102" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E103" s="2"/>
       <c r="G103" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H103" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E104" s="2"/>
       <c r="G104" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H104" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E105" s="2"/>
       <c r="G105" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H105" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H105" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E106" s="2"/>
       <c r="G106" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H106" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H106" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E107" s="2"/>
       <c r="G107" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H107" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H107" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E108" s="2"/>
       <c r="G108" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H108" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H108" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E109" s="2"/>
       <c r="G109" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H109" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H109" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E110" s="2"/>
       <c r="G110" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H110" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H110" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E111" s="2"/>
       <c r="G111" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H111" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H111" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E112" s="2"/>
       <c r="G112" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H112" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H112" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E113" s="2"/>
       <c r="G113" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H113" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H113" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E114" s="2"/>
       <c r="G114" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H114" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H114" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E115" s="2"/>
       <c r="G115" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H115" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H115" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E116" s="2"/>
       <c r="G116" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H116" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H116" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E117" s="2"/>
       <c r="G117" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H117" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H117" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E118" s="2"/>
       <c r="G118" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H118" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H118" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E119" s="2"/>
       <c r="G119" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H119" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H119" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E120" s="2"/>
       <c r="G120" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H120" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H120" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E121" s="2"/>
       <c r="G121" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H121" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H121" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E122" s="2"/>
       <c r="G122" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H122" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H122" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E123" s="2"/>
       <c r="G123" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H123" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H123" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E124" s="2"/>
       <c r="G124" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="H124" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="H124" t="str">
-        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E125" s="2"/>
       <c r="G125" t="str">
-        <f t="shared" ref="G125:G188" ca="1" si="14">IF(B125="","",TEXT(NOW(),"yyyy"))</f>
+        <f t="shared" ref="G125:G188" ca="1" si="13">IF(B125="","",TEXT(NOW(),"yyyy"))</f>
         <v/>
       </c>
       <c r="H125" t="str">
-        <f t="shared" ref="H125:H188" ca="1" si="15">IF(B125="","",TEXT(NOW(),"mm"))</f>
+        <f t="shared" ref="H125:H188" ca="1" si="14">IF(B125="","",TEXT(NOW(),"mm"))</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E126" s="2"/>
       <c r="G126" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H126" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H126" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E127" s="2"/>
       <c r="G127" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H127" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H127" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E128" s="2"/>
       <c r="G128" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H128" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H128" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E129" s="2"/>
       <c r="G129" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H129" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H129" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E130" s="2"/>
       <c r="G130" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H130" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H130" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E131" s="2"/>
       <c r="G131" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H131" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H131" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E132" s="2"/>
       <c r="G132" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H132" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H132" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="str">
-        <f t="shared" ref="C133:C196" ca="1" si="16">IF(B133="","",IF(C133="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C133))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E133" s="2"/>
       <c r="G133" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H133" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H133" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E134" s="2"/>
       <c r="G134" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H134" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H134" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E135" s="2"/>
       <c r="G135" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H135" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H135" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E136" s="2"/>
       <c r="G136" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H136" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H136" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E137" s="2"/>
       <c r="G137" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H137" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H137" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E138" s="2"/>
       <c r="G138" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H138" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H138" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E139" s="2"/>
       <c r="G139" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H139" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H139" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E140" s="2"/>
       <c r="G140" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H140" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H140" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E141" s="2"/>
       <c r="G141" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H141" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H141" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E142" s="2"/>
       <c r="G142" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H142" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H142" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E143" s="2"/>
       <c r="G143" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H143" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H143" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E144" s="2"/>
       <c r="G144" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H144" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H144" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E145" s="2"/>
       <c r="G145" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H145" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H145" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E146" s="2"/>
       <c r="G146" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H146" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H146" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E147" s="2"/>
       <c r="G147" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H147" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H147" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E148" s="2"/>
       <c r="G148" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H148" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H148" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E149" s="2"/>
       <c r="G149" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H149" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H149" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E150" s="2"/>
       <c r="G150" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H150" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H150" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E151" s="2"/>
       <c r="G151" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H151" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H151" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E152" s="2"/>
       <c r="G152" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H152" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E153" s="2"/>
       <c r="G153" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H153" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H153" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E154" s="2"/>
       <c r="G154" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H154" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H154" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E155" s="2"/>
       <c r="G155" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H155" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H155" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E156" s="2"/>
       <c r="G156" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H156" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H156" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E157" s="2"/>
       <c r="G157" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H157" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H157" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E158" s="2"/>
       <c r="G158" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H158" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H158" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E159" s="2"/>
       <c r="G159" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H159" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H159" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E160" s="2"/>
       <c r="G160" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H160" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H160" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E161" s="2"/>
       <c r="G161" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H161" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H161" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E162" s="2"/>
       <c r="G162" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H162" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H162" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C163" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E163" s="2"/>
       <c r="G163" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H163" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H163" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E164" s="2"/>
       <c r="G164" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H164" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H164" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="E165" s="2"/>
       <c r="G165" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H165" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H165" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="C166:C229" ca="1" si="15">IF(B166="","",IF(C166="",TEXT(NOW(),"yyyy-mm-dd"),C166))</f>
         <v/>
       </c>
       <c r="E166" s="2"/>
       <c r="G166" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H166" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H166" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E167" s="2"/>
       <c r="G167" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H167" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H167" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C168" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E168" s="2"/>
       <c r="G168" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H168" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H168" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E169" s="2"/>
       <c r="G169" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H169" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H169" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E170" s="2"/>
       <c r="G170" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H170" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H170" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E171" s="2"/>
       <c r="G171" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H171" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H171" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E172" s="2"/>
       <c r="G172" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H172" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H172" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E173" s="2"/>
       <c r="G173" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H173" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H173" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E174" s="2"/>
       <c r="G174" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H174" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H174" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E175" s="2"/>
       <c r="G175" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H175" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H175" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E176" s="2"/>
       <c r="G176" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H176" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H176" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C177" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E177" s="2"/>
       <c r="G177" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H177" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H177" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E178" s="2"/>
       <c r="G178" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H178" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H178" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C179" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E179" s="2"/>
       <c r="G179" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H179" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H179" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C180" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E180" s="2"/>
       <c r="G180" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H180" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H180" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C181" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E181" s="2"/>
       <c r="G181" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H181" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H181" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C182" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E182" s="2"/>
       <c r="G182" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H182" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H182" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C183" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E183" s="2"/>
       <c r="G183" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H183" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H183" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C184" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E184" s="2"/>
       <c r="G184" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H184" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H184" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C185" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E185" s="2"/>
       <c r="G185" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H185" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H185" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C186" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E186" s="2"/>
       <c r="G186" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H186" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H186" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C187" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E187" s="2"/>
       <c r="G187" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H187" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H187" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C188" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E188" s="2"/>
       <c r="G188" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="H188" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="H188" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C189" s="1" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="E189" s="2"/>
       <c r="G189" t="str">
-        <f t="shared" ref="G189:G205" ca="1" si="17">IF(B189="","",TEXT(NOW(),"yyyy"))</f>
+        <f t="shared" ref="G189:G205" ca="1" si="16">IF(B189="","",TEXT(NOW(),"yyyy"))</f>
         <v/>
       </c>
       <c r="H189" t="str">
-        <f t="shared" ref="H189:H252" ca="1" si="18">IF(B189="","",TEXT(NOW(),"mm"))</f>
+        <f t="shared" ref="H189:H252" ca="1" si="17">IF(B189="","",TEXT(NOW(),"mm"))</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C190" s="1" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="G190" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="G190" t="str">
+      <c r="H190" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H190" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C191" s="1" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="G191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="G191" t="str">
+      <c r="H191" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H191" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C192" s="1" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="G192" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="G192" t="str">
+      <c r="H192" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H192" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C193" s="1" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="G193" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="G193" t="str">
+      <c r="H193" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H193" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C194" s="1" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="G194" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="G194" t="str">
+      <c r="H194" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H194" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C195" s="1" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="G195" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="G195" t="str">
+      <c r="H195" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H195" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C196" s="1" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="G196" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="G196" t="str">
+      <c r="H196" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H196" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C197" s="1" t="str">
-        <f t="shared" ref="C197:C260" ca="1" si="19">IF(B197="","",IF(C197="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C197))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="G197" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="H197" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H197" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C198" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="G198" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="H198" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H198" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C199" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="G199" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="H199" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H199" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C200" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="G200" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="H200" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H200" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C201" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="G201" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="H201" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H201" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C202" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="G202" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="H202" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H202" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C203" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="G203" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="H203" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H203" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C204" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="G204" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="H204" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H204" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C205" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="G205" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="H205" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="H205" t="str">
-        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C206" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H206" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C207" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H207" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C208" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H208" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C209" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H209" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C210" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H210" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C211" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H211" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C212" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H212" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C213" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H213" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C214" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H214" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C215" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H215" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C216" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H216" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C217" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H217" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C218" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H218" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C219" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H219" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C220" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H220" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C221" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H221" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C222" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H222" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C223" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H223" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C224" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H224" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C225" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H225" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C226" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H226" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C227" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H227" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C228" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H228" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C229" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="H229" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C230" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ref="C230:C293" ca="1" si="18">IF(B230="","",IF(C230="",TEXT(NOW(),"yyyy-mm-dd"),C230))</f>
         <v/>
       </c>
       <c r="H230" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C231" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H231" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C232" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H232" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C233" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H233" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C234" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H234" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C235" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H235" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C236" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H236" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C237" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H237" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C238" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H238" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C239" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H239" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C240" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H240" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C241" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H241" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C242" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H242" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C243" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H243" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C244" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H244" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C245" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H245" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C246" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H246" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C247" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H247" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C248" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H248" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C249" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H249" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C250" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H250" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C251" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H251" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C252" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H252" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C253" s="1" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H253" t="str">
-        <f t="shared" ref="H253:H316" ca="1" si="20">IF(B253="","",TEXT(NOW(),"mm"))</f>
+        <f t="shared" ref="H253:H316" ca="1" si="19">IF(B253="","",TEXT(NOW(),"mm"))</f>
         <v/>
       </c>
     </row>
     <row r="254" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C254" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="H254" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="H254" t="str">
-        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C255" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="H255" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="H255" t="str">
-        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C256" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="H256" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="H256" t="str">
-        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C257" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="H257" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="H257" t="str">
-        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C258" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="H258" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="H258" t="str">
-        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C259" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="H259" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="H259" t="str">
-        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C260" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="H260" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="H260" t="str">
-        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C261" s="1" t="str">
-        <f t="shared" ref="C261:C324" ca="1" si="21">IF(B261="","",IF(C261="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C261))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H261" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C262" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H262" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C263" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H263" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C264" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H264" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C265" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H265" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C266" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H266" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C267" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H267" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C268" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H268" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C269" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H269" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C270" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H270" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C271" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H271" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C272" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H272" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C273" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H273" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C274" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H274" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C275" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H275" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C276" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H276" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C277" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H277" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C278" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H278" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C279" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H279" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C280" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H280" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C281" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H281" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C282" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H282" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C283" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H283" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C284" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H284" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C285" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H285" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C286" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H286" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C287" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H287" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C288" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H288" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C289" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H289" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C290" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H290" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C291" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H291" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C292" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H292" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C293" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H293" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C294" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="C294:C357" ca="1" si="20">IF(B294="","",IF(C294="",TEXT(NOW(),"yyyy-mm-dd"),C294))</f>
         <v/>
       </c>
       <c r="H294" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C295" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H295" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C296" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H296" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C297" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H297" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C298" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H298" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C299" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H299" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C300" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H300" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C301" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H301" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C302" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H302" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C303" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H303" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C304" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H304" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C305" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H305" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C306" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H306" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C307" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H307" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C308" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H308" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C309" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H309" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C310" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H310" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C311" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H311" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C312" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H312" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C313" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H313" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C314" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H314" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C315" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H315" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C316" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H316" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C317" s="1" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H317" t="str">
-        <f t="shared" ref="H317:H325" ca="1" si="22">IF(B317="","",TEXT(NOW(),"mm"))</f>
+        <f t="shared" ref="H317:H325" ca="1" si="21">IF(B317="","",TEXT(NOW(),"mm"))</f>
         <v/>
       </c>
     </row>
     <row r="318" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C318" s="1" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="H318" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="H318" t="str">
-        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C319" s="1" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="H319" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="H319" t="str">
-        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C320" s="1" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="H320" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="H320" t="str">
-        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C321" s="1" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="H321" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="H321" t="str">
-        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C322" s="1" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="H322" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="H322" t="str">
-        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C323" s="1" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="H323" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="H323" t="str">
-        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C324" s="1" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="H324" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="H324" t="str">
-        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C325" s="1" t="str">
-        <f t="shared" ref="C325:C385" ca="1" si="23">IF(B325="","",IF(C325="",TEXT(NOW(),"yyyy-m-d h:mm:ss "),C325))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H325" t="str">
-        <f ca="1">IF(B325="","",TEXT(NOW(),"mm"))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C326" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C327" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C328" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C329" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C330" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C331" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C332" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C333" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C334" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C335" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C336" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C338" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C340" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C350" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C352" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C356" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C358" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="C358:C385" ca="1" si="22">IF(B358="","",IF(C358="",TEXT(NOW(),"yyyy-mm-dd"),C358))</f>
         <v/>
       </c>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C362" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C364" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C376" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C378" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C380" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C382" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C384" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C385" s="1" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -5792,449 +5829,449 @@
     </row>
     <row r="387" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C387" s="1" t="str">
-        <f t="shared" ref="C387:C422" ca="1" si="24">IF(B387="","",IF(C387="",TEXT(NOW(),"yyyy-mm-dd hh"),C387))</f>
+        <f t="shared" ref="C387:C422" ca="1" si="23">IF(B387="","",IF(C387="",TEXT(NOW(),"yyyy-mm-dd hh"),C387))</f>
         <v/>
       </c>
       <c r="G387" t="str">
-        <f t="shared" ref="G387:G415" ca="1" si="25">IF(B387="","",IF(G387="",TEXT(NOW(),"yyyy"),G387))</f>
+        <f t="shared" ref="G387:G415" ca="1" si="24">IF(B387="","",IF(G387="",TEXT(NOW(),"yyyy"),G387))</f>
         <v/>
       </c>
       <c r="H387" t="str">
-        <f t="shared" ref="H387:H415" ca="1" si="26">IF(B387="","",IF(H387="",TEXT(NOW(),"mm"),H387))</f>
+        <f t="shared" ref="H387:H415" ca="1" si="25">IF(B387="","",IF(H387="",TEXT(NOW(),"mm"),H387))</f>
         <v/>
       </c>
     </row>
     <row r="388" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C388" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G388" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G388" t="str">
+      <c r="H388" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H388" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C389" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G389" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G389" t="str">
+      <c r="H389" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H389" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C390" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G390" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G390" t="str">
+      <c r="H390" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H390" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C391" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G391" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G391" t="str">
+      <c r="H391" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H391" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C392" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G392" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G392" t="str">
+      <c r="H392" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H392" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C393" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G393" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G393" t="str">
+      <c r="H393" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H393" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C394" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G394" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G394" t="str">
+      <c r="H394" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H394" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C395" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G395" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G395" t="str">
+      <c r="H395" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H395" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C396" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G396" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G396" t="str">
+      <c r="H396" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H396" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C397" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G397" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G397" t="str">
+      <c r="H397" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H397" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C398" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G398" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G398" t="str">
+      <c r="H398" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H398" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C399" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G399" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G399" t="str">
+      <c r="H399" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H399" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C400" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G400" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G400" t="str">
+      <c r="H400" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H400" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C401" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G401" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G401" t="str">
+      <c r="H401" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H401" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C402" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G402" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G402" t="str">
+      <c r="H402" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H402" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C403" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G403" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G403" t="str">
+      <c r="H403" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H403" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C404" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G404" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G404" t="str">
+      <c r="H404" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H404" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C405" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G405" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G405" t="str">
+      <c r="H405" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H405" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C406" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G406" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G406" t="str">
+      <c r="H406" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H406" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C407" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G407" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G407" t="str">
+      <c r="H407" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H407" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C408" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G408" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G408" t="str">
+      <c r="H408" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H408" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C409" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G409" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G409" t="str">
+      <c r="H409" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H409" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C410" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G410" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G410" t="str">
+      <c r="H410" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H410" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C411" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G411" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G411" t="str">
+      <c r="H411" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H411" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C412" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G412" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G412" t="str">
+      <c r="H412" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H412" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C413" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G413" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G413" t="str">
+      <c r="H413" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H413" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C414" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G414" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G414" t="str">
+      <c r="H414" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H414" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C415" s="1" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G415" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="G415" t="str">
+      <c r="H415" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H415" t="str">
-        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C416" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C420" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C421" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C422" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
